--- a/data_year/zb/批发和零售业/限额以上批发业企业基本情况和商品购销存情况/按登记注册类型分限额以上批发业企业商品出口额.xlsx
+++ b/data_year/zb/批发和零售业/限额以上批发业企业基本情况和商品购销存情况/按登记注册类型分限额以上批发业企业商品出口额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG15"/>
+  <dimension ref="A1:AG13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,1244 +598,1164 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1.04431</v>
+      </c>
+      <c r="C2" t="n">
+        <v>195.19711</v>
+      </c>
+      <c r="D2" t="n">
+        <v>36.22375</v>
+      </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>4511.47068</v>
+      </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>9.713979999999999</v>
+      </c>
+      <c r="I2" t="n">
+        <v>12470.39623</v>
+      </c>
+      <c r="J2" t="n">
+        <v>10.13177</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1918.90442</v>
+      </c>
+      <c r="L2" t="n">
+        <v>379.33444</v>
+      </c>
+      <c r="M2" t="n">
+        <v>25.66383</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1501.5633</v>
+      </c>
+      <c r="O2" t="n">
+        <v>4.98074</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1300.34114</v>
+      </c>
       <c r="Q2" t="n">
-        <v>11100.1</v>
-      </c>
-      <c r="R2" t="inlineStr"/>
+        <v>14380.3</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4890.80512</v>
+      </c>
       <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
+      <c r="T2" t="n">
+        <v>29.48746</v>
+      </c>
+      <c r="U2" t="n">
+        <v>408.34785</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2.02061</v>
+      </c>
+      <c r="W2" t="n">
+        <v>376.83978</v>
+      </c>
+      <c r="X2" t="n">
+        <v>4207.85708</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>50.75249</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>3898.9116</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>106.35846</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>151.83453</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>50.3531</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>13.15121</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1172.01122</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>181.09033</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>4.84352</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.4492</v>
+      </c>
+      <c r="C3" t="n">
+        <v>304.2428</v>
+      </c>
+      <c r="D3" t="n">
+        <v>117.4845</v>
+      </c>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>5514.9504</v>
+      </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>14.6858</v>
+      </c>
+      <c r="I3" t="n">
+        <v>15155.0888</v>
+      </c>
+      <c r="J3" t="n">
+        <v>7.367</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2216.5893</v>
+      </c>
+      <c r="L3" t="n">
+        <v>494.5503</v>
+      </c>
+      <c r="M3" t="n">
+        <v>16.6371</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1864.9334</v>
+      </c>
+      <c r="O3" t="n">
+        <v>29.8691</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1530.3485</v>
+      </c>
       <c r="Q3" t="n">
-        <v>13819.9</v>
-      </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
+        <v>17740.9164</v>
+      </c>
+      <c r="R3" t="n">
+        <v>6009.5006</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.4861</v>
+      </c>
+      <c r="T3" t="n">
+        <v>31.1142</v>
+      </c>
+      <c r="U3" t="n">
+        <v>720.8942</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.685</v>
+      </c>
+      <c r="W3" t="n">
+        <v>686.6088999999999</v>
+      </c>
+      <c r="X3" t="n">
+        <v>5238.8943</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>49.7037</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>4886.6279</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>117.2463</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>185.3164</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>45.7383</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>30.8877</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1373.3195</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>122.6745</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>7.0484</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.70681</v>
+        <v>0.06883</v>
       </c>
       <c r="C4" t="n">
-        <v>129.39155</v>
+        <v>191.61104</v>
       </c>
       <c r="D4" t="n">
-        <v>47.1934</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
+        <v>115.79944</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.08469</v>
+      </c>
       <c r="F4" t="n">
-        <v>3549.92348</v>
+        <v>6069.00773</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>12.33891</v>
+        <v>2.71177</v>
       </c>
       <c r="I4" t="n">
-        <v>9978.32329</v>
+        <v>17049.01347</v>
       </c>
       <c r="J4" t="n">
-        <v>10.13623</v>
+        <v>4.25589</v>
       </c>
       <c r="K4" t="n">
-        <v>1654.0632</v>
+        <v>2876.83183</v>
       </c>
       <c r="L4" t="n">
-        <v>343.25241</v>
+        <v>544.54115</v>
       </c>
       <c r="M4" t="n">
-        <v>18.95818</v>
+        <v>23.39079</v>
       </c>
       <c r="N4" t="n">
-        <v>1023.23605</v>
+        <v>1966.75028</v>
       </c>
       <c r="O4" t="n">
-        <v>5.90705</v>
+        <v>34.12409</v>
       </c>
       <c r="P4" t="n">
-        <v>887.23064</v>
+        <v>1739.86163</v>
       </c>
       <c r="Q4" t="n">
-        <v>11152</v>
+        <v>19939.8</v>
       </c>
       <c r="R4" t="n">
-        <v>3893.17589</v>
+        <v>6613.54888</v>
       </c>
       <c r="S4" t="n">
-        <v>0.59518</v>
+        <v>0.78979</v>
       </c>
       <c r="T4" t="n">
-        <v>20.58646</v>
+        <v>44.88374</v>
       </c>
       <c r="U4" t="n">
-        <v>150.42263</v>
+        <v>924.07447</v>
       </c>
       <c r="V4" t="n">
-        <v>0.13515</v>
+        <v>1.77377</v>
       </c>
       <c r="W4" t="n">
-        <v>129.10584</v>
+        <v>876.62717</v>
       </c>
       <c r="X4" t="n">
-        <v>3195.46551</v>
+        <v>5768.98594</v>
       </c>
       <c r="Y4" t="n">
-        <v>48.29447</v>
+        <v>48.05896</v>
       </c>
       <c r="Z4" t="n">
-        <v>2917.11492</v>
+        <v>5439.26903</v>
       </c>
       <c r="AA4" t="n">
-        <v>102.53828</v>
+        <v>137.41414</v>
       </c>
       <c r="AB4" t="n">
-        <v>127.51784</v>
+        <v>144.24381</v>
       </c>
       <c r="AC4" t="n">
-        <v>44.82048</v>
+        <v>35.49567</v>
       </c>
       <c r="AD4" t="n">
-        <v>21.29115</v>
+        <v>18.0139</v>
       </c>
       <c r="AE4" t="n">
-        <v>977.09435</v>
+        <v>1520.73042</v>
       </c>
       <c r="AF4" t="n">
-        <v>145.21931</v>
+        <v>99.60739</v>
       </c>
       <c r="AG4" t="n">
-        <v>3.38716</v>
+        <v>5.13722</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.04431</v>
+        <v>0.41413</v>
       </c>
       <c r="C5" t="n">
-        <v>195.19711</v>
+        <v>198.99001</v>
       </c>
       <c r="D5" t="n">
-        <v>36.22375</v>
+        <v>17.99217</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>4511.47068</v>
+        <v>7801.27119</v>
       </c>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
-        <v>9.713979999999999</v>
-      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>12470.39623</v>
+        <v>19058.24687</v>
       </c>
       <c r="J5" t="n">
-        <v>10.13177</v>
+        <v>0.37364</v>
       </c>
       <c r="K5" t="n">
-        <v>1918.90442</v>
+        <v>1368.57425</v>
       </c>
       <c r="L5" t="n">
-        <v>379.33444</v>
+        <v>770.0159200000001</v>
       </c>
       <c r="M5" t="n">
-        <v>25.66383</v>
+        <v>2.80851</v>
       </c>
       <c r="N5" t="n">
-        <v>1501.5633</v>
+        <v>2187.89517</v>
       </c>
       <c r="O5" t="n">
-        <v>4.98074</v>
+        <v>4.33564</v>
       </c>
       <c r="P5" t="n">
-        <v>1300.34114</v>
+        <v>1984.15539</v>
       </c>
       <c r="Q5" t="n">
-        <v>14380.3</v>
+        <v>22402.8</v>
       </c>
       <c r="R5" t="n">
-        <v>4890.80512</v>
-      </c>
-      <c r="S5" t="inlineStr"/>
+        <v>8571.287109999999</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.55493</v>
+      </c>
       <c r="T5" t="n">
-        <v>29.48746</v>
+        <v>53.78238</v>
       </c>
       <c r="U5" t="n">
-        <v>408.34785</v>
+        <v>1156.64973</v>
       </c>
       <c r="V5" t="n">
-        <v>2.02061</v>
+        <v>1.10947</v>
       </c>
       <c r="W5" t="n">
-        <v>376.83978</v>
+        <v>1100.20295</v>
       </c>
       <c r="X5" t="n">
-        <v>4207.85708</v>
+        <v>6825.44971</v>
       </c>
       <c r="Y5" t="n">
-        <v>50.75249</v>
+        <v>4.64903</v>
       </c>
       <c r="Z5" t="n">
-        <v>3898.9116</v>
+        <v>6626.16492</v>
       </c>
       <c r="AA5" t="n">
-        <v>106.35846</v>
+        <v>11.16911</v>
       </c>
       <c r="AB5" t="n">
-        <v>151.83453</v>
+        <v>183.46665</v>
       </c>
       <c r="AC5" t="n">
-        <v>50.3531</v>
+        <v>3.59991</v>
       </c>
       <c r="AD5" t="n">
-        <v>13.15121</v>
+        <v>3.8911</v>
       </c>
       <c r="AE5" t="n">
-        <v>1172.01122</v>
+        <v>2165.63602</v>
       </c>
       <c r="AF5" t="n">
-        <v>181.09033</v>
+        <v>101.8166</v>
       </c>
       <c r="AG5" t="n">
-        <v>4.84352</v>
+        <v>0.41776</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4492</v>
+        <v>0.51578</v>
       </c>
       <c r="C6" t="n">
-        <v>304.2428</v>
+        <v>248.24937</v>
       </c>
       <c r="D6" t="n">
-        <v>117.4845</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
+        <v>16.49424</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7521600000000001</v>
+      </c>
       <c r="F6" t="n">
-        <v>5514.9504</v>
+        <v>7874.65866</v>
       </c>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="n">
-        <v>14.6858</v>
-      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>15155.0888</v>
+        <v>19488.36447</v>
       </c>
       <c r="J6" t="n">
-        <v>7.367</v>
+        <v>0.72321</v>
       </c>
       <c r="K6" t="n">
-        <v>2216.5893</v>
+        <v>977.30507</v>
       </c>
       <c r="L6" t="n">
-        <v>494.5503</v>
-      </c>
-      <c r="M6" t="n">
-        <v>16.6371</v>
-      </c>
+        <v>903.02833</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>1864.9334</v>
+        <v>1913.91518</v>
       </c>
       <c r="O6" t="n">
-        <v>29.8691</v>
+        <v>3.07675</v>
       </c>
       <c r="P6" t="n">
-        <v>1530.3485</v>
+        <v>1661.32112</v>
       </c>
       <c r="Q6" t="n">
-        <v>17740.9164</v>
+        <v>22909.4</v>
       </c>
       <c r="R6" t="n">
-        <v>6009.5006</v>
+        <v>8777.68699</v>
       </c>
       <c r="S6" t="n">
-        <v>1.4861</v>
+        <v>12.26621</v>
       </c>
       <c r="T6" t="n">
-        <v>31.1142</v>
+        <v>118.33862</v>
       </c>
       <c r="U6" t="n">
-        <v>720.8942</v>
+        <v>1507.11724</v>
       </c>
       <c r="V6" t="n">
-        <v>1.685</v>
+        <v>1.46613</v>
       </c>
       <c r="W6" t="n">
-        <v>686.6088999999999</v>
+        <v>1375.04628</v>
       </c>
       <c r="X6" t="n">
-        <v>5238.8943</v>
+        <v>7223.70408</v>
       </c>
       <c r="Y6" t="n">
-        <v>49.7037</v>
+        <v>5.84241</v>
       </c>
       <c r="Z6" t="n">
-        <v>4886.6279</v>
+        <v>7043.85388</v>
       </c>
       <c r="AA6" t="n">
-        <v>117.2463</v>
+        <v>5.88909</v>
       </c>
       <c r="AB6" t="n">
-        <v>185.3164</v>
+        <v>168.1187</v>
       </c>
       <c r="AC6" t="n">
-        <v>45.7383</v>
+        <v>1.03715</v>
       </c>
       <c r="AD6" t="n">
-        <v>30.8877</v>
+        <v>9.4841</v>
       </c>
       <c r="AE6" t="n">
-        <v>1373.3195</v>
+        <v>2443.40516</v>
       </c>
       <c r="AF6" t="n">
-        <v>122.6745</v>
+        <v>39.24768</v>
       </c>
       <c r="AG6" t="n">
-        <v>7.0484</v>
+        <v>0.31394</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.06883</v>
+        <v>0.3793</v>
       </c>
       <c r="C7" t="n">
-        <v>191.61104</v>
+        <v>744.5004</v>
       </c>
       <c r="D7" t="n">
-        <v>115.79944</v>
+        <v>16.8275</v>
       </c>
       <c r="E7" t="n">
-        <v>1.08469</v>
+        <v>0.3911</v>
       </c>
       <c r="F7" t="n">
-        <v>6069.00773</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="n">
-        <v>2.71177</v>
-      </c>
+        <v>7838.141</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4.2648</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>17049.01347</v>
+        <v>18978.9595</v>
       </c>
       <c r="J7" t="n">
-        <v>4.25589</v>
+        <v>0.6772</v>
       </c>
       <c r="K7" t="n">
-        <v>2876.83183</v>
+        <v>935.3459</v>
       </c>
       <c r="L7" t="n">
-        <v>544.54115</v>
-      </c>
-      <c r="M7" t="n">
-        <v>23.39079</v>
-      </c>
+        <v>820.9318</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>1966.75028</v>
+        <v>2889.4503</v>
       </c>
       <c r="O7" t="n">
-        <v>34.12409</v>
+        <v>7.0243</v>
       </c>
       <c r="P7" t="n">
-        <v>1739.86163</v>
+        <v>2137.1556</v>
       </c>
       <c r="Q7" t="n">
-        <v>19939.8</v>
+        <v>22631.4</v>
       </c>
       <c r="R7" t="n">
-        <v>6613.54888</v>
+        <v>8659.0728</v>
       </c>
       <c r="S7" t="n">
-        <v>0.78979</v>
+        <v>12.5834</v>
       </c>
       <c r="T7" t="n">
-        <v>44.88374</v>
+        <v>46.1545</v>
       </c>
       <c r="U7" t="n">
-        <v>924.07447</v>
+        <v>762.9645</v>
       </c>
       <c r="V7" t="n">
-        <v>1.77377</v>
+        <v>5.5889</v>
       </c>
       <c r="W7" t="n">
-        <v>876.62717</v>
+        <v>694.3733999999999</v>
       </c>
       <c r="X7" t="n">
-        <v>5768.98594</v>
+        <v>7321.1484</v>
       </c>
       <c r="Y7" t="n">
-        <v>48.05896</v>
+        <v>1.5798</v>
       </c>
       <c r="Z7" t="n">
-        <v>5439.26903</v>
+        <v>7203.9649</v>
       </c>
       <c r="AA7" t="n">
-        <v>137.41414</v>
+        <v>6.5179</v>
       </c>
       <c r="AB7" t="n">
-        <v>144.24381</v>
+        <v>109.0859</v>
       </c>
       <c r="AC7" t="n">
-        <v>35.49567</v>
+        <v>0.6772</v>
       </c>
       <c r="AD7" t="n">
-        <v>18.0139</v>
+        <v>9.6793</v>
       </c>
       <c r="AE7" t="n">
-        <v>1520.73042</v>
+        <v>1990.0127</v>
       </c>
       <c r="AF7" t="n">
-        <v>99.60739</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>5.13722</v>
-      </c>
+        <v>46.1964</v>
+      </c>
+      <c r="AG7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.41413</v>
-      </c>
+          <t>2016年</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>198.99001</v>
+        <v>596.4881</v>
       </c>
       <c r="D8" t="n">
-        <v>17.99217</v>
-      </c>
-      <c r="E8" t="inlineStr"/>
+        <v>0.8184</v>
+      </c>
+      <c r="E8" t="n">
+        <v>113.3279</v>
+      </c>
       <c r="F8" t="n">
-        <v>7801.27119</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
+        <v>7314.7472</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6.8506</v>
+      </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>19058.24687</v>
+        <v>18160.6803</v>
       </c>
       <c r="J8" t="n">
-        <v>0.37364</v>
+        <v>0.8099</v>
       </c>
       <c r="K8" t="n">
-        <v>1368.57425</v>
+        <v>714.5949000000001</v>
       </c>
       <c r="L8" t="n">
-        <v>770.0159200000001</v>
-      </c>
-      <c r="M8" t="n">
-        <v>2.80851</v>
-      </c>
+        <v>907.5548</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>2187.89517</v>
+        <v>2990.7034</v>
       </c>
       <c r="O8" t="n">
-        <v>4.33564</v>
+        <v>6.6924</v>
       </c>
       <c r="P8" t="n">
-        <v>1984.15539</v>
+        <v>2274.1953</v>
       </c>
       <c r="Q8" t="n">
-        <v>22402.8</v>
+        <v>21808.8</v>
       </c>
       <c r="R8" t="n">
-        <v>8571.287109999999</v>
+        <v>8222.301799999999</v>
       </c>
       <c r="S8" t="n">
-        <v>1.55493</v>
+        <v>1.8793</v>
       </c>
       <c r="T8" t="n">
-        <v>53.78238</v>
+        <v>48.0444</v>
       </c>
       <c r="U8" t="n">
-        <v>1156.64973</v>
+        <v>657.4361</v>
       </c>
       <c r="V8" t="n">
-        <v>1.10947</v>
+        <v>2.9959</v>
       </c>
       <c r="W8" t="n">
-        <v>1100.20295</v>
+        <v>597.6661</v>
       </c>
       <c r="X8" t="n">
-        <v>6825.44971</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>4.64903</v>
-      </c>
+        <v>7555.8308</v>
+      </c>
+      <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="n">
-        <v>6626.16492</v>
+        <v>7416.0547</v>
       </c>
       <c r="AA8" t="n">
-        <v>11.16911</v>
+        <v>1.3483</v>
       </c>
       <c r="AB8" t="n">
-        <v>183.46665</v>
+        <v>138.4281</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.59991</v>
+        <v>0.8099</v>
       </c>
       <c r="AD8" t="n">
-        <v>3.8911</v>
+        <v>5.2039</v>
       </c>
       <c r="AE8" t="n">
-        <v>2165.63602</v>
+        <v>1615.6254</v>
       </c>
       <c r="AF8" t="n">
-        <v>101.8166</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0.41776</v>
-      </c>
+        <v>45.4954</v>
+      </c>
+      <c r="AG8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.51578</v>
-      </c>
+          <t>2017年</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>248.24937</v>
+        <v>188.284</v>
       </c>
       <c r="D9" t="n">
-        <v>16.49424</v>
+        <v>1.164</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7521600000000001</v>
+        <v>85.209</v>
       </c>
       <c r="F9" t="n">
-        <v>7874.65866</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
+        <v>7330.74</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6.462</v>
+      </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>19488.36447</v>
+        <v>19429.087</v>
       </c>
       <c r="J9" t="n">
-        <v>0.72321</v>
+        <v>0.974</v>
       </c>
       <c r="K9" t="n">
-        <v>977.30507</v>
+        <v>518.8049999999999</v>
       </c>
       <c r="L9" t="n">
-        <v>903.02833</v>
+        <v>893.948</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
-        <v>1913.91518</v>
+        <v>3439.776</v>
       </c>
       <c r="O9" t="n">
-        <v>3.07675</v>
+        <v>5.115</v>
       </c>
       <c r="P9" t="n">
-        <v>1661.32112</v>
+        <v>3161.139</v>
       </c>
       <c r="Q9" t="n">
-        <v>22909.4</v>
+        <v>23544.6</v>
       </c>
       <c r="R9" t="n">
-        <v>8777.68699</v>
+        <v>8224.688</v>
       </c>
       <c r="S9" t="n">
-        <v>12.26621</v>
+        <v>10.633</v>
       </c>
       <c r="T9" t="n">
-        <v>118.33862</v>
+        <v>30.443</v>
       </c>
       <c r="U9" t="n">
-        <v>1507.11724</v>
+        <v>675.737</v>
       </c>
       <c r="V9" t="n">
-        <v>1.46613</v>
+        <v>5.1</v>
       </c>
       <c r="W9" t="n">
-        <v>1375.04628</v>
+        <v>623.1</v>
       </c>
       <c r="X9" t="n">
-        <v>7223.70408</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>5.84241</v>
-      </c>
+        <v>8590.861999999999</v>
+      </c>
+      <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="n">
-        <v>7043.85388</v>
+        <v>8442.331</v>
       </c>
       <c r="AA9" t="n">
-        <v>5.88909</v>
+        <v>1.501</v>
       </c>
       <c r="AB9" t="n">
-        <v>168.1187</v>
+        <v>147.03</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.03715</v>
+        <v>0.974</v>
       </c>
       <c r="AD9" t="n">
-        <v>9.4841</v>
+        <v>1.276</v>
       </c>
       <c r="AE9" t="n">
-        <v>2443.40516</v>
+        <v>2079.171</v>
       </c>
       <c r="AF9" t="n">
-        <v>39.24768</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0.31394</v>
-      </c>
+        <v>12.147</v>
+      </c>
+      <c r="AG9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3793</v>
+        <v>4.2</v>
       </c>
       <c r="C10" t="n">
-        <v>744.5004</v>
+        <v>671.3</v>
       </c>
       <c r="D10" t="n">
-        <v>16.8275</v>
+        <v>1.2</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3911</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>7838.141</v>
+        <v>8362.799999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>4.2648</v>
+        <v>2.4</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>18978.9595</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.6772</v>
-      </c>
+        <v>20432.5</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>935.3459</v>
+        <v>235.3</v>
       </c>
       <c r="L10" t="n">
-        <v>820.9318</v>
+        <v>1039.5</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>2889.4503</v>
+        <v>5112.7</v>
       </c>
       <c r="O10" t="n">
-        <v>7.0243</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="P10" t="n">
-        <v>2137.1556</v>
+        <v>4424.9</v>
       </c>
       <c r="Q10" t="n">
-        <v>22631.4</v>
+        <v>26158</v>
       </c>
       <c r="R10" t="n">
-        <v>8659.0728</v>
+        <v>9402.299999999999</v>
       </c>
       <c r="S10" t="n">
-        <v>12.5834</v>
+        <v>0.1</v>
       </c>
       <c r="T10" t="n">
-        <v>46.1545</v>
+        <v>38.1</v>
       </c>
       <c r="U10" t="n">
-        <v>762.9645</v>
+        <v>612.8</v>
       </c>
       <c r="V10" t="n">
-        <v>5.5889</v>
+        <v>5</v>
       </c>
       <c r="W10" t="n">
-        <v>694.3733999999999</v>
+        <v>567.2</v>
       </c>
       <c r="X10" t="n">
-        <v>7321.1484</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>1.5798</v>
-      </c>
+        <v>9185</v>
+      </c>
+      <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="n">
-        <v>7203.9649</v>
+        <v>8984.6</v>
       </c>
       <c r="AA10" t="n">
-        <v>6.5179</v>
+        <v>1.8</v>
       </c>
       <c r="AB10" t="n">
-        <v>109.0859</v>
+        <v>198.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.6772</v>
+        <v>0.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>9.6793</v>
+        <v>0.4</v>
       </c>
       <c r="AE10" t="n">
-        <v>1990.0127</v>
+        <v>1594.7</v>
       </c>
       <c r="AF10" t="n">
-        <v>46.1964</v>
+        <v>12.8</v>
       </c>
       <c r="AG10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
+          <t>2019年</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9.7439</v>
+      </c>
       <c r="C11" t="n">
-        <v>596.4881</v>
+        <v>570.5989</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8184</v>
+        <v>0.7587</v>
       </c>
       <c r="E11" t="n">
-        <v>113.3279</v>
+        <v>101.184</v>
       </c>
       <c r="F11" t="n">
-        <v>7314.7472</v>
+        <v>7192.1288</v>
       </c>
       <c r="G11" t="n">
-        <v>6.8506</v>
+        <v>1.4944</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>18160.6803</v>
+        <v>21176.5913</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8099</v>
+        <v>1.0437</v>
       </c>
       <c r="K11" t="n">
-        <v>714.5949000000001</v>
+        <v>128.6262</v>
       </c>
       <c r="L11" t="n">
-        <v>907.5548</v>
+        <v>1221.7516</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>2990.7034</v>
+        <v>5368.0268</v>
       </c>
       <c r="O11" t="n">
-        <v>6.6924</v>
+        <v>19.165</v>
       </c>
       <c r="P11" t="n">
-        <v>2274.1953</v>
+        <v>4667.3351</v>
       </c>
       <c r="Q11" t="n">
-        <v>21808.8</v>
+        <v>27346.3</v>
       </c>
       <c r="R11" t="n">
-        <v>8222.301799999999</v>
+        <v>8413.8807</v>
       </c>
       <c r="S11" t="n">
-        <v>1.8793</v>
+        <v>1.11</v>
       </c>
       <c r="T11" t="n">
-        <v>48.0444</v>
+        <v>154.2573</v>
       </c>
       <c r="U11" t="n">
-        <v>657.4361</v>
+        <v>801.7257</v>
       </c>
       <c r="V11" t="n">
-        <v>2.9959</v>
+        <v>2.2763</v>
       </c>
       <c r="W11" t="n">
-        <v>597.6661</v>
+        <v>642.5875</v>
       </c>
       <c r="X11" t="n">
-        <v>7555.8308</v>
+        <v>11178.0973</v>
       </c>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="n">
-        <v>7416.0547</v>
+        <v>10962.1638</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.3483</v>
+        <v>2.0893</v>
       </c>
       <c r="AB11" t="n">
-        <v>138.4281</v>
+        <v>213.844</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.8099</v>
+        <v>1.0437</v>
       </c>
       <c r="AD11" t="n">
-        <v>5.2039</v>
+        <v>6.5568</v>
       </c>
       <c r="AE11" t="n">
-        <v>1615.6254</v>
+        <v>1437.2738</v>
       </c>
       <c r="AF11" t="n">
-        <v>45.4954</v>
+        <v>10.3544</v>
       </c>
       <c r="AG11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
+          <t>2020年</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2.5309</v>
+      </c>
       <c r="C12" t="n">
-        <v>188.284</v>
+        <v>568.3028</v>
       </c>
       <c r="D12" t="n">
-        <v>1.164</v>
+        <v>5.5498</v>
       </c>
       <c r="E12" t="n">
-        <v>85.209</v>
+        <v>3.9013</v>
       </c>
       <c r="F12" t="n">
-        <v>7330.74</v>
+        <v>6100.8471</v>
       </c>
       <c r="G12" t="n">
-        <v>6.462</v>
+        <v>7.0262</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>19429.087</v>
+        <v>21366.8771</v>
       </c>
       <c r="J12" t="n">
-        <v>0.974</v>
+        <v>0.3261</v>
       </c>
       <c r="K12" t="n">
-        <v>518.8049999999999</v>
+        <v>369.8695</v>
       </c>
       <c r="L12" t="n">
-        <v>893.948</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>882.8683</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.6233</v>
+      </c>
       <c r="N12" t="n">
-        <v>3439.776</v>
+        <v>5318.1829</v>
       </c>
       <c r="O12" t="n">
-        <v>5.115</v>
+        <v>5.647</v>
       </c>
       <c r="P12" t="n">
-        <v>3161.139</v>
+        <v>4737.8009</v>
       </c>
       <c r="Q12" t="n">
-        <v>23544.6</v>
+        <v>27464.181</v>
       </c>
       <c r="R12" t="n">
-        <v>8224.688</v>
+        <v>6983.7151</v>
       </c>
       <c r="S12" t="n">
-        <v>10.633</v>
+        <v>0.09279999999999999</v>
       </c>
       <c r="T12" t="n">
-        <v>30.443</v>
+        <v>234.495</v>
       </c>
       <c r="U12" t="n">
-        <v>675.737</v>
+        <v>779.1214</v>
       </c>
       <c r="V12" t="n">
-        <v>5.1</v>
+        <v>5.4821</v>
       </c>
       <c r="W12" t="n">
-        <v>623.1</v>
+        <v>532.0256000000001</v>
       </c>
       <c r="X12" t="n">
-        <v>8590.861999999999</v>
-      </c>
-      <c r="Y12" t="inlineStr"/>
+        <v>12628.5352</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>4.115</v>
+      </c>
       <c r="Z12" t="n">
-        <v>8442.331</v>
+        <v>12291.6132</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.501</v>
+        <v>91.5517</v>
       </c>
       <c r="AB12" t="n">
-        <v>147.03</v>
+        <v>241.255</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.974</v>
+        <v>0.9494</v>
       </c>
       <c r="AD12" t="n">
-        <v>1.276</v>
+        <v>2.2489</v>
       </c>
       <c r="AE12" t="n">
-        <v>2079.171</v>
+        <v>1367.6024</v>
       </c>
       <c r="AF12" t="n">
-        <v>12.147</v>
+        <v>8.4072</v>
       </c>
       <c r="AG12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.2</v>
+        <v>2.1228</v>
       </c>
       <c r="C13" t="n">
-        <v>671.3</v>
+        <v>332.0118</v>
       </c>
       <c r="D13" t="n">
-        <v>1.2</v>
+        <v>1.1982</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>17.3058</v>
       </c>
       <c r="F13" t="n">
-        <v>8362.799999999999</v>
+        <v>7187.7214</v>
       </c>
       <c r="G13" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H13" t="inlineStr"/>
+        <v>12.967</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0602</v>
+      </c>
       <c r="I13" t="n">
-        <v>20432.5</v>
+        <v>26424.7</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>235.3</v>
+        <v>488.0354</v>
       </c>
       <c r="L13" t="n">
-        <v>1039.5</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>690.3546</v>
+      </c>
+      <c r="M13" t="n">
+        <v>11.9562</v>
+      </c>
       <c r="N13" t="n">
-        <v>5112.7</v>
+        <v>6074.1848</v>
       </c>
       <c r="O13" t="n">
-        <v>8.300000000000001</v>
+        <v>42.1918</v>
       </c>
       <c r="P13" t="n">
-        <v>4424.9</v>
+        <v>5680.5526</v>
       </c>
       <c r="Q13" t="n">
-        <v>26158</v>
+        <v>33460.1191</v>
       </c>
       <c r="R13" t="n">
-        <v>9402.299999999999</v>
+        <v>7878.076</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1</v>
+        <v>5.1589</v>
       </c>
       <c r="T13" t="n">
-        <v>38.1</v>
+        <v>166.3394</v>
       </c>
       <c r="U13" t="n">
-        <v>612.8</v>
+        <v>961.2342</v>
       </c>
       <c r="V13" t="n">
-        <v>5</v>
+        <v>21.2217</v>
       </c>
       <c r="W13" t="n">
-        <v>567.2</v>
+        <v>755.5472</v>
       </c>
       <c r="X13" t="n">
-        <v>9185</v>
-      </c>
-      <c r="Y13" t="inlineStr"/>
+        <v>16525.8734</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>4.4874</v>
+      </c>
       <c r="Z13" t="n">
-        <v>8984.6</v>
+        <v>16142.8939</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.8</v>
+        <v>85.37739999999999</v>
       </c>
       <c r="AB13" t="n">
-        <v>198.5</v>
+        <v>293.1147</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.8</v>
+        <v>12.0708</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.4</v>
+        <v>2.2923</v>
       </c>
       <c r="AE13" t="n">
-        <v>1594.7</v>
+        <v>1507.85</v>
       </c>
       <c r="AF13" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="AG13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>9.7439</v>
-      </c>
-      <c r="C14" t="n">
-        <v>570.5989</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.7587</v>
-      </c>
-      <c r="E14" t="n">
-        <v>101.184</v>
-      </c>
-      <c r="F14" t="n">
-        <v>7192.1288</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1.4944</v>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="n">
-        <v>21176.5913</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1.0437</v>
-      </c>
-      <c r="K14" t="n">
-        <v>128.6262</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1221.7516</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
-        <v>5368.0268</v>
-      </c>
-      <c r="O14" t="n">
-        <v>19.165</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4667.3351</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>27346.3</v>
-      </c>
-      <c r="R14" t="n">
-        <v>8413.8807</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="T14" t="n">
-        <v>154.2573</v>
-      </c>
-      <c r="U14" t="n">
-        <v>801.7257</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2.2763</v>
-      </c>
-      <c r="W14" t="n">
-        <v>642.5875</v>
-      </c>
-      <c r="X14" t="n">
-        <v>11178.0973</v>
-      </c>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="n">
-        <v>10962.1638</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>2.0893</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>213.844</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>1.0437</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>6.5568</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>1437.2738</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>10.3544</v>
-      </c>
-      <c r="AG14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2.5309</v>
-      </c>
-      <c r="C15" t="n">
-        <v>568.3028</v>
-      </c>
-      <c r="D15" t="n">
-        <v>5.5498</v>
-      </c>
-      <c r="E15" t="n">
-        <v>3.9013</v>
-      </c>
-      <c r="F15" t="n">
-        <v>6100.8471</v>
-      </c>
-      <c r="G15" t="n">
-        <v>7.0262</v>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>21366.8771</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.3261</v>
-      </c>
-      <c r="K15" t="n">
-        <v>369.8695</v>
-      </c>
-      <c r="L15" t="n">
-        <v>882.8683</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.6233</v>
-      </c>
-      <c r="N15" t="n">
-        <v>5318.1829</v>
-      </c>
-      <c r="O15" t="n">
-        <v>5.647</v>
-      </c>
-      <c r="P15" t="n">
-        <v>4737.8009</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>27464.181</v>
-      </c>
-      <c r="R15" t="n">
-        <v>6983.7151</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0.09279999999999999</v>
-      </c>
-      <c r="T15" t="n">
-        <v>234.495</v>
-      </c>
-      <c r="U15" t="n">
-        <v>779.1214</v>
-      </c>
-      <c r="V15" t="n">
-        <v>5.4821</v>
-      </c>
-      <c r="W15" t="n">
-        <v>532.0256000000001</v>
-      </c>
-      <c r="X15" t="n">
-        <v>12628.5352</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>4.115</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>12291.6132</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>91.5517</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>241.255</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0.9494</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>2.2489</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>1367.6024</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>8.4072</v>
-      </c>
-      <c r="AG15" t="inlineStr"/>
+        <v>9.303900000000001</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.0544</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
